--- a/biology/Zoologie/Conus_alexisallaryi/Conus_alexisallaryi.xlsx
+++ b/biology/Zoologie/Conus_alexisallaryi/Conus_alexisallaryi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus alexisallaryi est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de l'holotype mesure 49,5 mm.
 Modèle:Expliquer la section
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large des îles Salomon.
 </t>
@@ -577,13 +593,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus alexisallaryi a été décrite pour la première fois en 2018 par le malacologiste italien Tiziano Cossignani (d) (1951-)[1] dans la publication intitulée « Malacologia Mostra Mondiale »[2],[3].
-Synonymes
-Conus (Pionoconus) alexisallaryi (T. Cossignani, 2018) · non accepté
-Pionoconus alexisallaryi T. Cossignani, 2018 · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus alexisallaryi dans les principales bases sont les suivants :
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus alexisallaryi a été décrite pour la première fois en 2018 par le malacologiste italien Tiziano Cossignani (d) (1951-) dans la publication intitulée « Malacologia Mostra Mondiale »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_alexisallaryi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_alexisallaryi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Pionoconus) alexisallaryi (T. Cossignani, 2018) · non accepté
+Pionoconus alexisallaryi T. Cossignani, 2018 · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_alexisallaryi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_alexisallaryi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus alexisallaryi dans les principales bases sont les suivants :
 CoL : 7QSN7 - GBIF : 10991326 - 
 </t>
         </is>
